--- a/state_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
+++ b/state_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.275</v>
       </c>
       <c r="G2" t="n">
-        <v>0.457001107709595</v>
+        <v>0.457351523824559</v>
       </c>
       <c r="H2" t="n">
         <v>2.4</v>
@@ -581,7 +581,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>0.08651</v>
+        <v>0.08721</v>
       </c>
       <c r="M2" t="n">
         <v>0.906</v>
@@ -651,7 +651,7 @@
         <v>0.013</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0230379077813437</v>
+        <v>0.0230368938309871</v>
       </c>
       <c r="H3" t="n">
         <v>0.109</v>
@@ -732,7 +732,7 @@
         <v>0.013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0230379077813437</v>
+        <v>0.0230368938309871</v>
       </c>
       <c r="H4" t="n">
         <v>0.109</v>
@@ -813,7 +813,7 @@
         <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>4646.04425532246</v>
+        <v>4722.40700181328</v>
       </c>
       <c r="H5" t="n">
         <v>111987</v>
@@ -828,13 +828,13 @@
         <v>32.7586206896552</v>
       </c>
       <c r="L5" t="n">
-        <v>1.69845</v>
+        <v>1.64818</v>
       </c>
       <c r="M5" t="n">
         <v>2099.24</v>
       </c>
       <c r="N5" t="n">
-        <v>5968.64</v>
+        <v>6819.51723</v>
       </c>
       <c r="O5" t="n">
         <v>1821556.684</v>
@@ -898,7 +898,7 @@
         <v>42</v>
       </c>
       <c r="G6" t="n">
-        <v>4646.04425532246</v>
+        <v>4722.40700181328</v>
       </c>
       <c r="H6" t="n">
         <v>111987</v>
@@ -913,13 +913,13 @@
         <v>32.7586206896552</v>
       </c>
       <c r="L6" t="n">
-        <v>1.69845</v>
+        <v>1.64818</v>
       </c>
       <c r="M6" t="n">
         <v>2099.24</v>
       </c>
       <c r="N6" t="n">
-        <v>5968.64</v>
+        <v>6819.51723</v>
       </c>
       <c r="O6" t="n">
         <v>1821556.684</v>
@@ -983,7 +983,7 @@
         <v>42</v>
       </c>
       <c r="G7" t="n">
-        <v>4646.04425532246</v>
+        <v>4722.40700181328</v>
       </c>
       <c r="H7" t="n">
         <v>111987</v>
@@ -998,13 +998,13 @@
         <v>32.7586206896552</v>
       </c>
       <c r="L7" t="n">
-        <v>1.69845</v>
+        <v>1.64818</v>
       </c>
       <c r="M7" t="n">
         <v>2099.24</v>
       </c>
       <c r="N7" t="n">
-        <v>5968.64</v>
+        <v>6819.51723</v>
       </c>
       <c r="O7" t="n">
         <v>1821556.684</v>
@@ -1068,7 +1068,7 @@
         <v>42</v>
       </c>
       <c r="G8" t="n">
-        <v>4646.04425532246</v>
+        <v>4722.40700181328</v>
       </c>
       <c r="H8" t="n">
         <v>111987</v>
@@ -1083,13 +1083,13 @@
         <v>32.7586206896552</v>
       </c>
       <c r="L8" t="n">
-        <v>1.69845</v>
+        <v>1.64818</v>
       </c>
       <c r="M8" t="n">
         <v>2099.24</v>
       </c>
       <c r="N8" t="n">
-        <v>5968.64</v>
+        <v>6819.51723</v>
       </c>
       <c r="O8" t="n">
         <v>1821556.684</v>
@@ -1153,7 +1153,7 @@
         <v>0.02535</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0331026316764442</v>
+        <v>0.0331040979790413</v>
       </c>
       <c r="H9" t="n">
         <v>0.153846153846154</v>
@@ -1234,7 +1234,7 @@
         <v>0.02535</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0331026316764442</v>
+        <v>0.0331040979790413</v>
       </c>
       <c r="H10" t="n">
         <v>0.153846153846154</v>
@@ -1315,7 +1315,7 @@
         <v>0.036</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0373793096303665</v>
+        <v>0.0373719618985068</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
@@ -1396,7 +1396,7 @@
         <v>0.036</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0373793096303665</v>
+        <v>0.0373719618985068</v>
       </c>
       <c r="H12" t="n">
         <v>0.14</v>
@@ -1473,7 +1473,7 @@
         <v>0.115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.139622247029506</v>
+        <v>0.139650838450485</v>
       </c>
       <c r="H13" t="n">
         <v>0.448</v>
@@ -1550,7 +1550,7 @@
         <v>0.115</v>
       </c>
       <c r="G14" t="n">
-        <v>0.139622247029506</v>
+        <v>0.139650838450485</v>
       </c>
       <c r="H14" t="n">
         <v>0.448</v>
@@ -1627,7 +1627,7 @@
         <v>0.46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.512220679282677</v>
+        <v>0.512224212099465</v>
       </c>
       <c r="H15" t="n">
         <v>1.9</v>
@@ -1704,7 +1704,7 @@
         <v>0.46</v>
       </c>
       <c r="G16" t="n">
-        <v>0.512220679282677</v>
+        <v>0.512224212099465</v>
       </c>
       <c r="H16" t="n">
         <v>1.9</v>
@@ -2020,7 +2020,7 @@
         <v>0.02</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0393522002200238</v>
+        <v>0.0393499997456083</v>
       </c>
       <c r="H20" t="n">
         <v>0.359</v>
@@ -2101,7 +2101,7 @@
         <v>0.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0393522002200238</v>
+        <v>0.0393499997456083</v>
       </c>
       <c r="H21" t="n">
         <v>0.359</v>
@@ -2182,7 +2182,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>4480.19169551877</v>
+        <v>4555.26040634866</v>
       </c>
       <c r="H22" t="n">
         <v>111987</v>
@@ -2203,7 +2203,7 @@
         <v>1486.6</v>
       </c>
       <c r="N22" t="n">
-        <v>5922.72</v>
+        <v>6747.84121</v>
       </c>
       <c r="O22" t="n">
         <v>1821556.684</v>
@@ -2267,7 +2267,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>4480.19169551877</v>
+        <v>4555.26040634866</v>
       </c>
       <c r="H23" t="n">
         <v>111987</v>
@@ -2288,7 +2288,7 @@
         <v>1486.6</v>
       </c>
       <c r="N23" t="n">
-        <v>5922.72</v>
+        <v>6747.84121</v>
       </c>
       <c r="O23" t="n">
         <v>1821556.684</v>
@@ -2352,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>4480.19169551877</v>
+        <v>4555.26040634866</v>
       </c>
       <c r="H24" t="n">
         <v>111987</v>
@@ -2373,7 +2373,7 @@
         <v>1486.6</v>
       </c>
       <c r="N24" t="n">
-        <v>5922.72</v>
+        <v>6747.84121</v>
       </c>
       <c r="O24" t="n">
         <v>1821556.684</v>
@@ -2437,7 +2437,7 @@
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>4480.19169551877</v>
+        <v>4555.26040634866</v>
       </c>
       <c r="H25" t="n">
         <v>111987</v>
@@ -2458,7 +2458,7 @@
         <v>1486.6</v>
       </c>
       <c r="N25" t="n">
-        <v>5922.72</v>
+        <v>6747.84121</v>
       </c>
       <c r="O25" t="n">
         <v>1821556.684</v>
@@ -2522,7 +2522,7 @@
         <v>0.03077</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0367792287446523</v>
+        <v>0.036781082773449</v>
       </c>
       <c r="H26" t="n">
         <v>0.154545454545455</v>
@@ -2603,7 +2603,7 @@
         <v>0.03077</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0367792287446523</v>
+        <v>0.036781082773449</v>
       </c>
       <c r="H27" t="n">
         <v>0.154545454545455</v>
@@ -2684,7 +2684,7 @@
         <v>0.036</v>
       </c>
       <c r="G28" t="n">
-        <v>0.037816185216006</v>
+        <v>0.0378103370212605</v>
       </c>
       <c r="H28" t="n">
         <v>0.1806</v>
@@ -2765,7 +2765,7 @@
         <v>0.036</v>
       </c>
       <c r="G29" t="n">
-        <v>0.037816185216006</v>
+        <v>0.0378103370212605</v>
       </c>
       <c r="H29" t="n">
         <v>0.1806</v>
@@ -2839,13 +2839,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.125</v>
+        <v>0.1254</v>
       </c>
       <c r="G30" t="n">
-        <v>0.152215467368489</v>
+        <v>0.152252533365739</v>
       </c>
       <c r="H30" t="n">
-        <v>0.642</v>
+        <v>0.6415999999999999</v>
       </c>
       <c r="I30" t="n">
         <v>0.40885</v>
@@ -2859,7 +2859,7 @@
         <v>0.22088</v>
       </c>
       <c r="N30" t="n">
-        <v>0.25826</v>
+        <v>0.25822</v>
       </c>
       <c r="O30" t="n">
         <v>1821556.684</v>
@@ -2916,13 +2916,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.125</v>
+        <v>0.1254</v>
       </c>
       <c r="G31" t="n">
-        <v>0.152215467368489</v>
+        <v>0.152252533365739</v>
       </c>
       <c r="H31" t="n">
-        <v>0.642</v>
+        <v>0.6415999999999999</v>
       </c>
       <c r="I31" t="n">
         <v>0.40885</v>
@@ -2936,7 +2936,7 @@
         <v>0.22088</v>
       </c>
       <c r="N31" t="n">
-        <v>0.25826</v>
+        <v>0.25822</v>
       </c>
       <c r="O31" t="n">
         <v>1821556.684</v>
@@ -2996,7 +2996,7 @@
         <v>0.359</v>
       </c>
       <c r="G32" t="n">
-        <v>0.416861006752462</v>
+        <v>0.416864479691</v>
       </c>
       <c r="H32" t="n">
         <v>1.9</v>
@@ -3073,7 +3073,7 @@
         <v>0.359</v>
       </c>
       <c r="G33" t="n">
-        <v>0.416861006752462</v>
+        <v>0.416864479691</v>
       </c>
       <c r="H33" t="n">
         <v>1.9</v>
@@ -3308,7 +3308,7 @@
         <v>0.38</v>
       </c>
       <c r="G36" t="n">
-        <v>0.411565459143085</v>
+        <v>0.4115902115366</v>
       </c>
       <c r="H36" t="n">
         <v>2.4</v>
@@ -3389,7 +3389,7 @@
         <v>0.028</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0512489125637984</v>
+        <v>0.0512447579396213</v>
       </c>
       <c r="H37" t="n">
         <v>0.359</v>
@@ -3470,7 +3470,7 @@
         <v>0.028</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0512489125637984</v>
+        <v>0.0512447579396213</v>
       </c>
       <c r="H38" t="n">
         <v>0.359</v>
@@ -3551,7 +3551,7 @@
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>3192.40947860852</v>
+        <v>3192.40876843131</v>
       </c>
       <c r="H39" t="n">
         <v>111987</v>
@@ -3636,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>3192.40947860852</v>
+        <v>3192.40876843131</v>
       </c>
       <c r="H40" t="n">
         <v>111987</v>
@@ -3721,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>3192.40947860852</v>
+        <v>3192.40876843131</v>
       </c>
       <c r="H41" t="n">
         <v>111987</v>
@@ -3806,7 +3806,7 @@
         <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>3192.40947860852</v>
+        <v>3192.40876843131</v>
       </c>
       <c r="H42" t="n">
         <v>111987</v>
@@ -3891,7 +3891,7 @@
         <v>0.03147</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0390280964512635</v>
+        <v>0.0390299190558433</v>
       </c>
       <c r="H43" t="n">
         <v>0.154545454545455</v>
@@ -3972,7 +3972,7 @@
         <v>0.03147</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0390280964512635</v>
+        <v>0.0390299190558433</v>
       </c>
       <c r="H44" t="n">
         <v>0.154545454545455</v>
@@ -4053,7 +4053,7 @@
         <v>0.0363</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0378710690776999</v>
+        <v>0.0378662121024028</v>
       </c>
       <c r="H45" t="n">
         <v>0.1806</v>
@@ -4134,7 +4134,7 @@
         <v>0.0363</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0378710690776999</v>
+        <v>0.0378662121024028</v>
       </c>
       <c r="H46" t="n">
         <v>0.1806</v>
@@ -4211,10 +4211,10 @@
         <v>0.135</v>
       </c>
       <c r="G47" t="n">
-        <v>0.155300213131201</v>
+        <v>0.155337279128451</v>
       </c>
       <c r="H47" t="n">
-        <v>0.642</v>
+        <v>0.6415999999999999</v>
       </c>
       <c r="I47" t="n">
         <v>0.40885</v>
@@ -4228,7 +4228,7 @@
         <v>0.21982</v>
       </c>
       <c r="N47" t="n">
-        <v>0.30132</v>
+        <v>0.30162</v>
       </c>
       <c r="O47" t="n">
         <v>1821556.684</v>
@@ -4288,10 +4288,10 @@
         <v>0.135</v>
       </c>
       <c r="G48" t="n">
-        <v>0.155300213131201</v>
+        <v>0.155337279128451</v>
       </c>
       <c r="H48" t="n">
-        <v>0.642</v>
+        <v>0.6415999999999999</v>
       </c>
       <c r="I48" t="n">
         <v>0.40885</v>
@@ -4305,7 +4305,7 @@
         <v>0.21982</v>
       </c>
       <c r="N48" t="n">
-        <v>0.30132</v>
+        <v>0.30162</v>
       </c>
       <c r="O48" t="n">
         <v>1821556.684</v>
@@ -4365,7 +4365,7 @@
         <v>0.272</v>
       </c>
       <c r="G49" t="n">
-        <v>0.388098294888055</v>
+        <v>0.388101767826593</v>
       </c>
       <c r="H49" t="n">
         <v>1.9</v>
@@ -4442,7 +4442,7 @@
         <v>0.272</v>
       </c>
       <c r="G50" t="n">
-        <v>0.388098294888055</v>
+        <v>0.388101767826593</v>
       </c>
       <c r="H50" t="n">
         <v>1.9</v>
@@ -4677,7 +4677,7 @@
         <v>0.35</v>
       </c>
       <c r="G53" t="n">
-        <v>0.365565507451456</v>
+        <v>0.365588223833956</v>
       </c>
       <c r="H53" t="n">
         <v>1.2</v>
@@ -4758,7 +4758,7 @@
         <v>0.0325</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0580734107176777</v>
+        <v>0.0580692736219841</v>
       </c>
       <c r="H54" t="n">
         <v>0.359</v>
@@ -4839,7 +4839,7 @@
         <v>0.0325</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0580734107176777</v>
+        <v>0.0580692736219841</v>
       </c>
       <c r="H55" t="n">
         <v>0.359</v>
@@ -4920,7 +4920,7 @@
         <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>1033.57218827427</v>
+        <v>1033.57049192093</v>
       </c>
       <c r="H56" t="n">
         <v>54750</v>
@@ -5005,7 +5005,7 @@
         <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>1033.57218827427</v>
+        <v>1033.57049192093</v>
       </c>
       <c r="H57" t="n">
         <v>54750</v>
@@ -5090,7 +5090,7 @@
         <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>1033.57218827427</v>
+        <v>1033.57049192093</v>
       </c>
       <c r="H58" t="n">
         <v>54750</v>
@@ -5175,7 +5175,7 @@
         <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>1033.57218827427</v>
+        <v>1033.57049192093</v>
       </c>
       <c r="H59" t="n">
         <v>54750</v>
@@ -5260,7 +5260,7 @@
         <v>0.03077</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0367814040493634</v>
+        <v>0.0367836192344726</v>
       </c>
       <c r="H60" t="n">
         <v>0.154545454545455</v>
@@ -5341,7 +5341,7 @@
         <v>0.03077</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0367814040493634</v>
+        <v>0.0367836192344726</v>
       </c>
       <c r="H61" t="n">
         <v>0.154545454545455</v>
@@ -5422,7 +5422,7 @@
         <v>0.0375</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0526909413631645</v>
+        <v>0.0526906461543514</v>
       </c>
       <c r="H62" t="n">
         <v>0.774</v>
@@ -5503,7 +5503,7 @@
         <v>0.0375</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0526909413631645</v>
+        <v>0.0526906461543514</v>
       </c>
       <c r="H63" t="n">
         <v>0.774</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.133</v>
+        <v>0.13325</v>
       </c>
       <c r="G64" t="n">
-        <v>0.166678542912348</v>
+        <v>0.166701657809643</v>
       </c>
       <c r="H64" t="n">
         <v>1.06</v>
@@ -5597,7 +5597,7 @@
         <v>0.2209</v>
       </c>
       <c r="N64" t="n">
-        <v>0.2978</v>
+        <v>0.2981</v>
       </c>
       <c r="O64" t="n">
         <v>1821556.684</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.133</v>
+        <v>0.13325</v>
       </c>
       <c r="G65" t="n">
-        <v>0.166678542912348</v>
+        <v>0.166701657809643</v>
       </c>
       <c r="H65" t="n">
         <v>1.06</v>
@@ -5674,7 +5674,7 @@
         <v>0.2209</v>
       </c>
       <c r="N65" t="n">
-        <v>0.2978</v>
+        <v>0.2981</v>
       </c>
       <c r="O65" t="n">
         <v>1821556.684</v>
@@ -5734,7 +5734,7 @@
         <v>0.248</v>
       </c>
       <c r="G66" t="n">
-        <v>0.326447339884116</v>
+        <v>0.32645422765993</v>
       </c>
       <c r="H66" t="n">
         <v>1.9</v>
@@ -5811,7 +5811,7 @@
         <v>0.248</v>
       </c>
       <c r="G67" t="n">
-        <v>0.326447339884116</v>
+        <v>0.32645422765993</v>
       </c>
       <c r="H67" t="n">
         <v>1.9</v>
@@ -6046,7 +6046,7 @@
         <v>0.25</v>
       </c>
       <c r="G70" t="n">
-        <v>0.332196332613433</v>
+        <v>0.332214876599148</v>
       </c>
       <c r="H70" t="n">
         <v>1.2</v>
@@ -6127,7 +6127,7 @@
         <v>0.037</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07873330157460171</v>
+        <v>0.07873121788852901</v>
       </c>
       <c r="H71" t="n">
         <v>0.437</v>
@@ -6208,7 +6208,7 @@
         <v>0.037</v>
       </c>
       <c r="G72" t="n">
-        <v>0.07873330157460171</v>
+        <v>0.07873121788852901</v>
       </c>
       <c r="H72" t="n">
         <v>0.437</v>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>93.4513537110418</v>
+        <v>93.44557358586989</v>
       </c>
       <c r="H73" t="n">
         <v>2420</v>
@@ -6374,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>93.4513537110418</v>
+        <v>93.44557358586989</v>
       </c>
       <c r="H74" t="n">
         <v>2420</v>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>93.4513537110418</v>
+        <v>93.44557358586989</v>
       </c>
       <c r="H75" t="n">
         <v>2420</v>
@@ -6544,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>93.4513537110418</v>
+        <v>93.44557358586989</v>
       </c>
       <c r="H76" t="n">
         <v>2420</v>
@@ -6629,7 +6629,7 @@
         <v>0.03077</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0379924213165237</v>
+        <v>0.0379978505545268</v>
       </c>
       <c r="H77" t="n">
         <v>0.188811188811189</v>
@@ -6710,7 +6710,7 @@
         <v>0.03077</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0379924213165237</v>
+        <v>0.0379978505545268</v>
       </c>
       <c r="H78" t="n">
         <v>0.188811188811189</v>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.133</v>
+        <v>0.13325</v>
       </c>
       <c r="G81" t="n">
-        <v>0.16855</v>
+        <v>0.16856</v>
       </c>
       <c r="H81" t="n">
         <v>1.06</v>
@@ -6963,10 +6963,10 @@
         <v>0.1825</v>
       </c>
       <c r="M81" t="n">
-        <v>0.213</v>
+        <v>0.21286</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2987</v>
+        <v>0.29891</v>
       </c>
       <c r="O81" t="n">
         <v>1821556.684</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.133</v>
+        <v>0.13325</v>
       </c>
       <c r="G82" t="n">
-        <v>0.16855</v>
+        <v>0.16856</v>
       </c>
       <c r="H82" t="n">
         <v>1.06</v>
@@ -7040,10 +7040,10 @@
         <v>0.1825</v>
       </c>
       <c r="M82" t="n">
-        <v>0.213</v>
+        <v>0.21286</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2987</v>
+        <v>0.29891</v>
       </c>
       <c r="O82" t="n">
         <v>1821556.684</v>
@@ -7103,7 +7103,7 @@
         <v>0.24</v>
       </c>
       <c r="G83" t="n">
-        <v>0.272089804301319</v>
+        <v>0.272100469372121</v>
       </c>
       <c r="H83" t="n">
         <v>0.99</v>
@@ -7180,7 +7180,7 @@
         <v>0.24</v>
       </c>
       <c r="G84" t="n">
-        <v>0.272089804301319</v>
+        <v>0.272100469372121</v>
       </c>
       <c r="H84" t="n">
         <v>0.99</v>
@@ -7415,7 +7415,7 @@
         <v>0.28</v>
       </c>
       <c r="G87" t="n">
-        <v>0.31877491451015</v>
+        <v>0.318791435515605</v>
       </c>
       <c r="H87" t="n">
         <v>1.2</v>
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>55.383047906275</v>
+        <v>55.3663535509863</v>
       </c>
       <c r="H90" t="n">
         <v>1268</v>
@@ -7673,7 +7673,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L90" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M90" t="n">
         <v>82.3</v>
@@ -7743,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>55.383047906275</v>
+        <v>55.3663535509863</v>
       </c>
       <c r="H91" t="n">
         <v>1268</v>
@@ -7758,7 +7758,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L91" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M91" t="n">
         <v>82.3</v>
@@ -7828,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>55.383047906275</v>
+        <v>55.3663535509863</v>
       </c>
       <c r="H92" t="n">
         <v>1268</v>
@@ -7843,7 +7843,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L92" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M92" t="n">
         <v>82.3</v>
@@ -7913,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>55.383047906275</v>
+        <v>55.3663535509863</v>
       </c>
       <c r="H93" t="n">
         <v>1268</v>
@@ -7928,7 +7928,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L93" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M93" t="n">
         <v>82.3</v>
@@ -7998,7 +7998,7 @@
         <v>0.03077</v>
       </c>
       <c r="G94" t="n">
-        <v>0.040872235826555</v>
+        <v>0.040877665064558</v>
       </c>
       <c r="H94" t="n">
         <v>0.188811188811189</v>
@@ -8079,7 +8079,7 @@
         <v>0.03077</v>
       </c>
       <c r="G95" t="n">
-        <v>0.040872235826555</v>
+        <v>0.040877665064558</v>
       </c>
       <c r="H95" t="n">
         <v>0.188811188811189</v>
@@ -8315,24 +8315,24 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.127</v>
+        <v>0.12725</v>
       </c>
       <c r="G98" t="n">
-        <v>0.18055</v>
+        <v>0.18056</v>
       </c>
       <c r="H98" t="n">
         <v>1.06</v>
       </c>
       <c r="I98" t="n">
-        <v>0.626</v>
+        <v>0.6258</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.176</v>
+        <v>0.17585</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2516</v>
+        <v>0.25155</v>
       </c>
       <c r="N98" t="n">
         <v>0.439</v>
@@ -8392,24 +8392,24 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.127</v>
+        <v>0.12725</v>
       </c>
       <c r="G99" t="n">
-        <v>0.18055</v>
+        <v>0.18056</v>
       </c>
       <c r="H99" t="n">
         <v>1.06</v>
       </c>
       <c r="I99" t="n">
-        <v>0.626</v>
+        <v>0.6258</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.176</v>
+        <v>0.17585</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2516</v>
+        <v>0.25155</v>
       </c>
       <c r="N99" t="n">
         <v>0.439</v>
@@ -8472,7 +8472,7 @@
         <v>0.252</v>
       </c>
       <c r="G100" t="n">
-        <v>0.296356470967986</v>
+        <v>0.296367136038788</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>0.252</v>
       </c>
       <c r="G101" t="n">
-        <v>0.296356470967986</v>
+        <v>0.296367136038788</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -8784,7 +8784,7 @@
         <v>0.265</v>
       </c>
       <c r="G104" t="n">
-        <v>0.303027936173418</v>
+        <v>0.303043602644108</v>
       </c>
       <c r="H104" t="n">
         <v>1.2</v>
@@ -9027,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>53.6795812005319</v>
+        <v>53.6340245473051</v>
       </c>
       <c r="H107" t="n">
         <v>1268</v>
@@ -9042,7 +9042,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L107" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M107" t="n">
         <v>74.8</v>
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>53.6795812005319</v>
+        <v>53.6340245473051</v>
       </c>
       <c r="H108" t="n">
         <v>1268</v>
@@ -9127,7 +9127,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L108" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M108" t="n">
         <v>74.8</v>
@@ -9197,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>53.6795812005319</v>
+        <v>53.6340245473051</v>
       </c>
       <c r="H109" t="n">
         <v>1268</v>
@@ -9212,7 +9212,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L109" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M109" t="n">
         <v>74.8</v>
@@ -9282,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>53.6795812005319</v>
+        <v>53.6340245473051</v>
       </c>
       <c r="H110" t="n">
         <v>1268</v>
@@ -9297,7 +9297,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L110" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M110" t="n">
         <v>74.8</v>
@@ -9367,7 +9367,7 @@
         <v>0.03007</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0411289608736158</v>
+        <v>0.0411346758609874</v>
       </c>
       <c r="H111" t="n">
         <v>0.188811188811189</v>
@@ -9448,7 +9448,7 @@
         <v>0.03007</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0411289608736158</v>
+        <v>0.0411346758609874</v>
       </c>
       <c r="H112" t="n">
         <v>0.188811188811189</v>
@@ -9529,7 +9529,7 @@
         <v>0.0415</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0543318750292682</v>
+        <v>0.0543304405674392</v>
       </c>
       <c r="H113" t="n">
         <v>0.774</v>
@@ -9610,7 +9610,7 @@
         <v>0.0415</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0543318750292682</v>
+        <v>0.0543304405674392</v>
       </c>
       <c r="H114" t="n">
         <v>0.774</v>
@@ -9684,10 +9684,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.1345</v>
+        <v>0.13455</v>
       </c>
       <c r="G115" t="n">
-        <v>0.181766666666667</v>
+        <v>0.181771666666667</v>
       </c>
       <c r="H115" t="n">
         <v>1.06</v>
@@ -9701,7 +9701,7 @@
         <v>0.18</v>
       </c>
       <c r="M115" t="n">
-        <v>0.2679</v>
+        <v>0.26811</v>
       </c>
       <c r="N115" t="n">
         <v>0.439</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.1345</v>
+        <v>0.13455</v>
       </c>
       <c r="G116" t="n">
-        <v>0.181766666666667</v>
+        <v>0.181771666666667</v>
       </c>
       <c r="H116" t="n">
         <v>1.06</v>
@@ -9778,7 +9778,7 @@
         <v>0.18</v>
       </c>
       <c r="M116" t="n">
-        <v>0.2679</v>
+        <v>0.26811</v>
       </c>
       <c r="N116" t="n">
         <v>0.439</v>
@@ -9841,7 +9841,7 @@
         <v>0.252</v>
       </c>
       <c r="G117" t="n">
-        <v>0.296089804301319</v>
+        <v>0.296100469372121</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -9918,7 +9918,7 @@
         <v>0.252</v>
       </c>
       <c r="G118" t="n">
-        <v>0.296089804301319</v>
+        <v>0.296100469372121</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>0.3</v>
       </c>
       <c r="G121" t="n">
-        <v>0.32847168183136</v>
+        <v>0.328472399145377</v>
       </c>
       <c r="H121" t="n">
         <v>1.27</v>
@@ -10393,10 +10393,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.88546</v>
+        <v>0.5539500000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>44.7798021306626</v>
+        <v>44.6899983999089</v>
       </c>
       <c r="H124" t="n">
         <v>930</v>
@@ -10411,7 +10411,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L124" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M124" t="n">
         <v>49.2</v>
@@ -10478,10 +10478,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.88546</v>
+        <v>0.5539500000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>44.7798021306626</v>
+        <v>44.6899983999089</v>
       </c>
       <c r="H125" t="n">
         <v>930</v>
@@ -10496,7 +10496,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L125" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M125" t="n">
         <v>49.2</v>
@@ -10563,10 +10563,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.88546</v>
+        <v>0.5539500000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>44.7798021306626</v>
+        <v>44.6899983999089</v>
       </c>
       <c r="H126" t="n">
         <v>930</v>
@@ -10581,7 +10581,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L126" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M126" t="n">
         <v>49.2</v>
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.88546</v>
+        <v>0.5539500000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>44.7798021306626</v>
+        <v>44.6899983999089</v>
       </c>
       <c r="H127" t="n">
         <v>930</v>
@@ -10666,7 +10666,7 @@
         <v>3.33333333333333</v>
       </c>
       <c r="L127" t="n">
-        <v>0.26895</v>
+        <v>0.17656</v>
       </c>
       <c r="M127" t="n">
         <v>49.2</v>
@@ -10736,7 +10736,7 @@
         <v>0.03147</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0425743374164308</v>
+        <v>0.0425803699031008</v>
       </c>
       <c r="H128" t="n">
         <v>0.188811188811189</v>
@@ -10817,7 +10817,7 @@
         <v>0.03147</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0425743374164308</v>
+        <v>0.0425803699031008</v>
       </c>
       <c r="H129" t="n">
         <v>0.188811188811189</v>
@@ -10898,7 +10898,7 @@
         <v>0.044</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0564085416959348</v>
+        <v>0.0564071072341059</v>
       </c>
       <c r="H130" t="n">
         <v>0.774</v>
@@ -10979,7 +10979,7 @@
         <v>0.044</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0564085416959348</v>
+        <v>0.0564071072341059</v>
       </c>
       <c r="H131" t="n">
         <v>0.774</v>
@@ -11056,7 +11056,7 @@
         <v>0.14</v>
       </c>
       <c r="G132" t="n">
-        <v>0.19155</v>
+        <v>0.191546666666667</v>
       </c>
       <c r="H132" t="n">
         <v>1.06</v>
@@ -11133,7 +11133,7 @@
         <v>0.14</v>
       </c>
       <c r="G133" t="n">
-        <v>0.19155</v>
+        <v>0.191546666666667</v>
       </c>
       <c r="H133" t="n">
         <v>1.06</v>
@@ -11210,7 +11210,7 @@
         <v>0.295</v>
       </c>
       <c r="G134" t="n">
-        <v>0.332206470967986</v>
+        <v>0.332217136038788</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -11287,7 +11287,7 @@
         <v>0.295</v>
       </c>
       <c r="G135" t="n">
-        <v>0.332206470967986</v>
+        <v>0.332217136038788</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -11762,10 +11762,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1.15231</v>
+        <v>0.71157</v>
       </c>
       <c r="G141" t="n">
-        <v>49.6821159141234</v>
+        <v>49.527382543937</v>
       </c>
       <c r="H141" t="n">
         <v>1000</v>
@@ -11780,7 +11780,7 @@
         <v>3.38983050847458</v>
       </c>
       <c r="L141" t="n">
-        <v>0.50466</v>
+        <v>0.32363</v>
       </c>
       <c r="M141" t="n">
         <v>29.23</v>
@@ -11847,10 +11847,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1.15231</v>
+        <v>0.71157</v>
       </c>
       <c r="G142" t="n">
-        <v>49.6821159141234</v>
+        <v>49.527382543937</v>
       </c>
       <c r="H142" t="n">
         <v>1000</v>
@@ -11865,7 +11865,7 @@
         <v>3.38983050847458</v>
       </c>
       <c r="L142" t="n">
-        <v>0.50466</v>
+        <v>0.32363</v>
       </c>
       <c r="M142" t="n">
         <v>29.23</v>
@@ -11932,10 +11932,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.15231</v>
+        <v>0.71157</v>
       </c>
       <c r="G143" t="n">
-        <v>49.6821159141234</v>
+        <v>49.527382543937</v>
       </c>
       <c r="H143" t="n">
         <v>1000</v>
@@ -11950,7 +11950,7 @@
         <v>3.38983050847458</v>
       </c>
       <c r="L143" t="n">
-        <v>0.50466</v>
+        <v>0.32363</v>
       </c>
       <c r="M143" t="n">
         <v>29.23</v>
@@ -12017,10 +12017,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.15231</v>
+        <v>0.71157</v>
       </c>
       <c r="G144" t="n">
-        <v>49.6821159141234</v>
+        <v>49.527382543937</v>
       </c>
       <c r="H144" t="n">
         <v>1000</v>
@@ -12035,7 +12035,7 @@
         <v>3.38983050847458</v>
       </c>
       <c r="L144" t="n">
-        <v>0.50466</v>
+        <v>0.32363</v>
       </c>
       <c r="M144" t="n">
         <v>29.23</v>
@@ -12105,7 +12105,7 @@
         <v>0.03846</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0496097671985923</v>
+        <v>0.0496161545374195</v>
       </c>
       <c r="H145" t="n">
         <v>0.188811188811189</v>
@@ -12186,7 +12186,7 @@
         <v>0.03846</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0496097671985923</v>
+        <v>0.0496161545374195</v>
       </c>
       <c r="H146" t="n">
         <v>0.188811188811189</v>
@@ -12267,7 +12267,7 @@
         <v>0.047</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0465866525721371</v>
+        <v>0.0465851937973958</v>
       </c>
       <c r="H147" t="n">
         <v>0.106</v>
@@ -12348,7 +12348,7 @@
         <v>0.047</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0465866525721371</v>
+        <v>0.0465851937973958</v>
       </c>
       <c r="H148" t="n">
         <v>0.106</v>
@@ -12579,7 +12579,7 @@
         <v>0.35</v>
       </c>
       <c r="G151" t="n">
-        <v>0.362835439520701</v>
+        <v>0.362813873148637</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
@@ -12656,7 +12656,7 @@
         <v>0.35</v>
       </c>
       <c r="G152" t="n">
-        <v>0.362835439520701</v>
+        <v>0.362813873148637</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -13131,10 +13131,10 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.90855</v>
+        <v>1.14594</v>
       </c>
       <c r="G158" t="n">
-        <v>60.0540315405523</v>
+        <v>59.8015194617879</v>
       </c>
       <c r="H158" t="n">
         <v>1000</v>
@@ -13149,7 +13149,7 @@
         <v>5.08474576271186</v>
       </c>
       <c r="L158" t="n">
-        <v>1.03083</v>
+        <v>0.64013</v>
       </c>
       <c r="M158" t="n">
         <v>29.23</v>
@@ -13216,10 +13216,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1.90855</v>
+        <v>1.14594</v>
       </c>
       <c r="G159" t="n">
-        <v>60.0540315405523</v>
+        <v>59.8015194617879</v>
       </c>
       <c r="H159" t="n">
         <v>1000</v>
@@ -13234,7 +13234,7 @@
         <v>5.08474576271186</v>
       </c>
       <c r="L159" t="n">
-        <v>1.03083</v>
+        <v>0.64013</v>
       </c>
       <c r="M159" t="n">
         <v>29.23</v>
@@ -13301,10 +13301,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.90855</v>
+        <v>1.14594</v>
       </c>
       <c r="G160" t="n">
-        <v>60.0540315405523</v>
+        <v>59.8015194617879</v>
       </c>
       <c r="H160" t="n">
         <v>1000</v>
@@ -13319,7 +13319,7 @@
         <v>5.08474576271186</v>
       </c>
       <c r="L160" t="n">
-        <v>1.03083</v>
+        <v>0.64013</v>
       </c>
       <c r="M160" t="n">
         <v>29.23</v>
@@ -13386,10 +13386,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1.90855</v>
+        <v>1.14594</v>
       </c>
       <c r="G161" t="n">
-        <v>60.0540315405523</v>
+        <v>59.8015194617879</v>
       </c>
       <c r="H161" t="n">
         <v>1000</v>
@@ -13404,7 +13404,7 @@
         <v>5.08474576271186</v>
       </c>
       <c r="L161" t="n">
-        <v>1.03083</v>
+        <v>0.64013</v>
       </c>
       <c r="M161" t="n">
         <v>29.23</v>
@@ -13636,7 +13636,7 @@
         <v>0.047</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0465188559619676</v>
+        <v>0.0465173971872263</v>
       </c>
       <c r="H164" t="n">
         <v>0.106</v>
@@ -13717,7 +13717,7 @@
         <v>0.047</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0465188559619676</v>
+        <v>0.0465173971872263</v>
       </c>
       <c r="H165" t="n">
         <v>0.106</v>
@@ -13948,7 +13948,7 @@
         <v>0.4</v>
       </c>
       <c r="G168" t="n">
-        <v>0.398283780791342</v>
+        <v>0.398258373102341</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
@@ -14025,7 +14025,7 @@
         <v>0.4</v>
       </c>
       <c r="G169" t="n">
-        <v>0.398283780791342</v>
+        <v>0.398258373102341</v>
       </c>
       <c r="H169" t="n">
         <v>1</v>
@@ -14500,10 +14500,10 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3.31303</v>
+        <v>1.91883</v>
       </c>
       <c r="G175" t="n">
-        <v>58.7289747793355</v>
+        <v>58.1285410871016</v>
       </c>
       <c r="H175" t="n">
         <v>1000</v>
@@ -14518,7 +14518,7 @@
         <v>5.08474576271186</v>
       </c>
       <c r="L175" t="n">
-        <v>1.71763</v>
+        <v>1.03769</v>
       </c>
       <c r="M175" t="n">
         <v>22.88</v>
@@ -14585,10 +14585,10 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>3.31303</v>
+        <v>1.91883</v>
       </c>
       <c r="G176" t="n">
-        <v>58.7289747793355</v>
+        <v>58.1285410871016</v>
       </c>
       <c r="H176" t="n">
         <v>1000</v>
@@ -14603,7 +14603,7 @@
         <v>5.08474576271186</v>
       </c>
       <c r="L176" t="n">
-        <v>1.71763</v>
+        <v>1.03769</v>
       </c>
       <c r="M176" t="n">
         <v>22.88</v>
@@ -14670,10 +14670,10 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>3.31303</v>
+        <v>1.91883</v>
       </c>
       <c r="G177" t="n">
-        <v>58.7289747793355</v>
+        <v>58.1285410871016</v>
       </c>
       <c r="H177" t="n">
         <v>1000</v>
@@ -14688,7 +14688,7 @@
         <v>5.08474576271186</v>
       </c>
       <c r="L177" t="n">
-        <v>1.71763</v>
+        <v>1.03769</v>
       </c>
       <c r="M177" t="n">
         <v>22.88</v>
@@ -14755,10 +14755,10 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3.31303</v>
+        <v>1.91883</v>
       </c>
       <c r="G178" t="n">
-        <v>58.7289747793355</v>
+        <v>58.1285410871016</v>
       </c>
       <c r="H178" t="n">
         <v>1000</v>
@@ -14773,7 +14773,7 @@
         <v>5.08474576271186</v>
       </c>
       <c r="L178" t="n">
-        <v>1.71763</v>
+        <v>1.03769</v>
       </c>
       <c r="M178" t="n">
         <v>22.88</v>
@@ -15005,7 +15005,7 @@
         <v>0.047</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0458239407077303</v>
+        <v>0.045822481932989</v>
       </c>
       <c r="H181" t="n">
         <v>0.06</v>
@@ -15086,7 +15086,7 @@
         <v>0.047</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0458239407077303</v>
+        <v>0.045822481932989</v>
       </c>
       <c r="H182" t="n">
         <v>0.06</v>
@@ -15317,7 +15317,7 @@
         <v>0.38</v>
       </c>
       <c r="G185" t="n">
-        <v>0.380218066102836</v>
+        <v>0.380291797743485</v>
       </c>
       <c r="H185" t="n">
         <v>1.12</v>
@@ -15394,7 +15394,7 @@
         <v>0.38</v>
       </c>
       <c r="G186" t="n">
-        <v>0.380218066102836</v>
+        <v>0.380291797743485</v>
       </c>
       <c r="H186" t="n">
         <v>1.12</v>
@@ -15599,6 +15599,1375 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.311415094339623</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.4598</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.6352</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0974745762711864</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.29275</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.18641</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.24456</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0974745762711864</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.29275</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.18641</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.24456</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>3.35321</v>
+      </c>
+      <c r="G192" t="n">
+        <v>56.9270420378388</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I192" t="n">
+        <v>386</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3.38983050847458</v>
+      </c>
+      <c r="K192" t="n">
+        <v>5.08474576271186</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2.38977</v>
+      </c>
+      <c r="M192" t="n">
+        <v>21</v>
+      </c>
+      <c r="N192" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>3.35321</v>
+      </c>
+      <c r="G193" t="n">
+        <v>56.9270420378388</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I193" t="n">
+        <v>386</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.38983050847458</v>
+      </c>
+      <c r="K193" t="n">
+        <v>5.08474576271186</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2.38977</v>
+      </c>
+      <c r="M193" t="n">
+        <v>21</v>
+      </c>
+      <c r="N193" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>3.35321</v>
+      </c>
+      <c r="G194" t="n">
+        <v>56.9270420378388</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I194" t="n">
+        <v>386</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3.38983050847458</v>
+      </c>
+      <c r="K194" t="n">
+        <v>5.08474576271186</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2.38977</v>
+      </c>
+      <c r="M194" t="n">
+        <v>21</v>
+      </c>
+      <c r="N194" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>3.35321</v>
+      </c>
+      <c r="G195" t="n">
+        <v>56.9270420378388</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I195" t="n">
+        <v>386</v>
+      </c>
+      <c r="J195" t="n">
+        <v>3.38983050847458</v>
+      </c>
+      <c r="K195" t="n">
+        <v>5.08474576271186</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2.38977</v>
+      </c>
+      <c r="M195" t="n">
+        <v>21</v>
+      </c>
+      <c r="N195" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.03794</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0606219066166727</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.284265734265734</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.15573</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.07185</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.10848</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.12657</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.03794</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0606219066166727</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.284265734265734</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.15573</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.07185</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.10848</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.12657</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.0478135593220339</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.05756</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.0478135593220339</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.05756</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.222796610169492</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.49275</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.36111</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.43582</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.222796610169492</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.49275</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.36111</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.43582</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.370122306218062</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.6775</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.370122306218062</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.6775</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.163135593220339</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.23376</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.2938</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Whangaehu at d/s Winstone Pulp</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.163135593220339</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.23376</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.2938</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1821556.684</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5628329.088</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Whau_1a</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
+++ b/state_results/Rivers/WhangaehuatdsWinstonePulp_6027691f48.xlsx
@@ -813,7 +813,7 @@
         <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>4722.40700181328</v>
+        <v>4842.2337402153</v>
       </c>
       <c r="H5" t="n">
         <v>111987</v>
@@ -834,7 +834,7 @@
         <v>2099.24</v>
       </c>
       <c r="N5" t="n">
-        <v>6819.51723</v>
+        <v>12796.47494</v>
       </c>
       <c r="O5" t="n">
         <v>1821556.684</v>
@@ -898,7 +898,7 @@
         <v>42</v>
       </c>
       <c r="G6" t="n">
-        <v>4722.40700181328</v>
+        <v>4842.2337402153</v>
       </c>
       <c r="H6" t="n">
         <v>111987</v>
@@ -919,7 +919,7 @@
         <v>2099.24</v>
       </c>
       <c r="N6" t="n">
-        <v>6819.51723</v>
+        <v>12796.47494</v>
       </c>
       <c r="O6" t="n">
         <v>1821556.684</v>
@@ -983,7 +983,7 @@
         <v>42</v>
       </c>
       <c r="G7" t="n">
-        <v>4722.40700181328</v>
+        <v>4842.2337402153</v>
       </c>
       <c r="H7" t="n">
         <v>111987</v>
@@ -1004,7 +1004,7 @@
         <v>2099.24</v>
       </c>
       <c r="N7" t="n">
-        <v>6819.51723</v>
+        <v>12796.47494</v>
       </c>
       <c r="O7" t="n">
         <v>1821556.684</v>
@@ -1068,7 +1068,7 @@
         <v>42</v>
       </c>
       <c r="G8" t="n">
-        <v>4722.40700181328</v>
+        <v>4842.2337402153</v>
       </c>
       <c r="H8" t="n">
         <v>111987</v>
@@ -1089,7 +1089,7 @@
         <v>2099.24</v>
       </c>
       <c r="N8" t="n">
-        <v>6819.51723</v>
+        <v>12796.47494</v>
       </c>
       <c r="O8" t="n">
         <v>1821556.684</v>
@@ -2182,7 +2182,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>4555.26040634866</v>
+        <v>4673.05618308285</v>
       </c>
       <c r="H22" t="n">
         <v>111987</v>
@@ -2203,7 +2203,7 @@
         <v>1486.6</v>
       </c>
       <c r="N22" t="n">
-        <v>6747.84121</v>
+        <v>12168.80286</v>
       </c>
       <c r="O22" t="n">
         <v>1821556.684</v>
@@ -2267,7 +2267,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>4555.26040634866</v>
+        <v>4673.05618308285</v>
       </c>
       <c r="H23" t="n">
         <v>111987</v>
@@ -2288,7 +2288,7 @@
         <v>1486.6</v>
       </c>
       <c r="N23" t="n">
-        <v>6747.84121</v>
+        <v>12168.80286</v>
       </c>
       <c r="O23" t="n">
         <v>1821556.684</v>
@@ -2352,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>4555.26040634866</v>
+        <v>4673.05618308285</v>
       </c>
       <c r="H24" t="n">
         <v>111987</v>
@@ -2373,7 +2373,7 @@
         <v>1486.6</v>
       </c>
       <c r="N24" t="n">
-        <v>6747.84121</v>
+        <v>12168.80286</v>
       </c>
       <c r="O24" t="n">
         <v>1821556.684</v>
@@ -2437,7 +2437,7 @@
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>4555.26040634866</v>
+        <v>4673.05618308285</v>
       </c>
       <c r="H25" t="n">
         <v>111987</v>
@@ -2458,7 +2458,7 @@
         <v>1486.6</v>
       </c>
       <c r="N25" t="n">
-        <v>6747.84121</v>
+        <v>12168.80286</v>
       </c>
       <c r="O25" t="n">
         <v>1821556.684</v>
